--- a/Datos/Database by set/Set with text box/Xlsx sets/Fifth Dawn Promos (P5DN).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Fifth Dawn Promos (P5DN).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,42 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Helm of Kaldra</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Legendary Artifact — Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Equipped creature has first strike, trample, and haste.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{1}: If you control Equipment named Helm of Kaldra, Sword of Kaldra, and Shield of Kaldra, create Kaldra, a legendary 4/4 colorless Avatar creature token. Attach those Equipment to it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Equip {2}</t>
+          <t>('Helm of Kaldra', ['{3}', 'Legendary Artifact — Equipment', 'Equipped creature has first strike, trample, and haste.', '{1}: If you control Equipment named Helm of Kaldra, Sword of Kaldra, and Shield of Kaldra, create Kaldra, a legendary 4/4 colorless Avatar creature token. Attach those Equipment to it.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
